--- a/StructureDefinition-svc-immunization.xlsx
+++ b/StructureDefinition-svc-immunization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$93</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3599" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="508">
   <si>
     <t>Path</t>
   </si>
@@ -149,13 +149,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Immunization event information</t>
   </si>
   <si>
-    <t>Describes the event of a patient being administered a vaccination or a record of a vaccination as reported by a patient, a clinician or another party and may include vaccine reaction information and what vaccination protocol was followed</t>
+    <t>Describes the event of a patient being administered a vaccine or a record of an immunization as reported by a patient, a clinician or another party.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -177,6 +174,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
@@ -643,70 +643,53 @@
     <t>Immunization.vaccineCode</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/uv/ips/StructureDefinition/CodeableConcept-uv-ips}
+    <t>Vaccine product administered</t>
+  </si>
+  <si>
+    <t>Vaccine that was administered or was to be administered.</t>
+  </si>
+  <si>
+    <t>The code for vaccine product administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/vaccine-code</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>RXA-5</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.id</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.extension</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
-    <t>Vaccine that was administered or was to be administered.Several kinds of vaccine product coding could be provided.
-     The IPS assumes that either the type of the vaccine for particular disease or diseases (e.g. MMR vaccine) against which the patient has been immunised is provided; or the known absent / unknown code.
-     Other coded information can be provided as well as: the IDMP Pharmaceutical Product Identifiers (PhPID), Medicinal Product Identifier (MPID), Packaged Medicinal Product Identifier (PCID), when available, or equivalent coded concepts; the WHO ATC codes; or any other kind of code that that identifies, classifies or cluster the administered product.</t>
-  </si>
-  <si>
-    <t>Vaccine that was administered or was to be administered. Several kinds of vaccine product coding could be provided.
-The IPS assumes that either the type of the vaccine for particular disease or diseases (e.g. MMR vaccine) against which the patient has been immunized is provided; or the known absent / unknown.
-    Other coded information can be provided as well as:
-    1. The IDMP Pharmaceutical Product Identifier (PhPID), Level 1, [Substance(s)]. Example: Amoxicillin and Clavulanate Potassium; or any other equivalent coded concept.
-    2. The IDMP Pharmaceutical Product Identifier (PhPID), Level 2 [Substance(s) + Strength + reference strength]. Example: Amoxicillin 875 mg and Clavulanate Potassium 125 mg; or any other equivalent coded concept.
-    3. The IDMP Pharmaceutical Product Identifier (PhPID), Level 3 [Substance(s) + administrable dose form]. Example: Amoxicillin and Clavulanate Potassium, Oral Tablet; or any other equivalent coded concept.
-    4. The IDMP Pharmaceutical Product Identifier (PhPID), Level 4 [Substance(s) + strength + reference strength + administrable dose form]. Example: Amoxicillin 875 mg and clavulanate potassium 125 mg, oral tablet; or any other equivalent coded concept.
-    5. The IDMP Medicinal Product Identifier (MPID) or any equivalent Medicinal Product Identifier. IDMP MPID uniquely identifies a Medicinal Product, reflecting (but not replacing) any other authorization numbers allocated by a regulator. MPID implies one (set of) PhPID.     The MPID shall use a common segment pattern related to a Medicinal Product, which, when each segment is valued shall define a specific MPID concept.
-    6. The IDMP Packaged Medicinal Product Identifier (PCID) or any equivalent Packaged Medicinal Product Identifier.     Uniquely identifies a Medicinal Product based on its packaging. This implies one MPID can be associated with more than one PCID, if the same Medicinal Product has more than one type of package.
-    7. Any other kind of code that that identifies, classifies or clusters the administered product (e.g. the medicinal product or the product class).
-    The value sets used for the PhPID, MPID and PCID identifiers are provisional and include only few equivalent concepts used for exemplification purposes, they will be updated with real IDMP identifiers when they will become available.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
-    <t>The type of vaccine for particular disease or diseases against which the patient has been immunised.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/vaccines-uv-ips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:$this}
-</t>
-  </si>
-  <si>
-    <t>Discriminated by bound value set</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.id</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.extension</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {http://hl7.org/fhir/uv/ips/StructureDefinition/Coding-uv-ips}
-</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system</t>
+    <t>Code defined by a terminology system</t>
   </si>
   <si>
     <t>A reference to a code defined by a terminology system.</t>
   </si>
   <si>
-    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.</t>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
@@ -715,14 +698,10 @@
     <t>CodeableConcept.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
-    <t>CV</t>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
   </si>
   <si>
     <t>Immunization.vaccineCode.coding.id</t>
@@ -822,55 +801,6 @@
   </si>
   <si>
     <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.coding.display.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.coding.display.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {translation}
-</t>
-  </si>
-  <si>
-    <t>Language Translation (Localization)</t>
-  </si>
-  <si>
-    <t>Language translation from base language of resource to another language.</t>
-  </si>
-  <si>
-    <t>ST.translation</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.coding.display.value</t>
-  </si>
-  <si>
-    <t>Primitive value for string</t>
-  </si>
-  <si>
-    <t>The actual value</t>
-  </si>
-  <si>
-    <t>1048576</t>
-  </si>
-  <si>
-    <t>string.value</t>
   </si>
   <si>
     <t>Immunization.vaccineCode.coding.userSelected</t>
@@ -910,7 +840,7 @@
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
   </si>
   <si>
-    <t>The text should be at the displayName level and not on this level.</t>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
   </si>
   <si>
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
@@ -925,58 +855,10 @@
     <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
-    <t>vaccineGPSCode</t>
-  </si>
-  <si>
-    <t>Code for vaccine from the SNOMED CT GPS code set</t>
-  </si>
-  <si>
-    <t>Code for a vaccine that is selected from the SNOMED CT GPS code set.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/vaccines-gps-uv-ips</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>RXA-5</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
-  </si>
-  <si>
-    <t>atcClass</t>
-  </si>
-  <si>
-    <t>WHO ATC classification</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/whoatc-uv-ips</t>
-  </si>
-  <si>
-    <t>absentOrUnknownImmunization</t>
-  </si>
-  <si>
-    <t>Absent Unknown Immunization</t>
-  </si>
-  <si>
-    <t>A reference to a code indicating that there there are no known immunizations or that this information is unknown.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/absent-or-unknown-immunizations-uv-ips</t>
-  </si>
-  <si>
     <t>Immunization.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/ips/StructureDefinition/Patient-uv-ips)
+    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-patient-updated)
 </t>
   </si>
   <si>
@@ -996,89 +878,6 @@
   </si>
   <si>
     <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Immunization.patient.id</t>
-  </si>
-  <si>
-    <t>Immunization.patient.extension</t>
-  </si>
-  <si>
-    <t>Immunization.patient.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Immunization.patient.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Immunization.patient.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Immunization.patient.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>Immunization.encounter</t>
@@ -1109,63 +908,37 @@
     <t>Immunization.occurrence[x]</t>
   </si>
   <si>
-    <t>dateTime
-string</t>
-  </si>
-  <si>
-    <t>Vaccine administration date</t>
-  </si>
-  <si>
-    <t>Date vaccine administered or was to be administered.</t>
-  </si>
-  <si>
-    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>RXA-3</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
-  </si>
-  <si>
-    <t>Immunization.occurrence[x].id</t>
-  </si>
-  <si>
-    <t>Immunization.occurrence[x].extension</t>
-  </si>
-  <si>
-    <t>data-absent-reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {data-absent-reason}
-</t>
-  </si>
-  <si>
-    <t>occurrence[x] absence reason</t>
-  </si>
-  <si>
-    <t>Provides a reason why the occurrence is missing.</t>
-  </si>
-  <si>
-    <t>ANY.nullFlavor</t>
-  </si>
-  <si>
-    <t>Immunization.recorded</t>
-  </si>
-  <si>
     <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
+    <t>Vaccine administration date</t>
+  </si>
+  <si>
+    <t>Date vaccine administered or was to be administered.</t>
+  </si>
+  <si>
+    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>RXA-3</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
+  </si>
+  <si>
+    <t>Immunization.recorded</t>
+  </si>
+  <si>
     <t>When the immunization was first captured in the subject's record</t>
   </si>
   <si>
@@ -1303,19 +1076,49 @@
     <t>Immunization.site</t>
   </si>
   <si>
-    <t>Concept - reference to a terminology or just  text</t>
-  </si>
-  <si>
-    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/target-site-uv-ips</t>
+    <t>Body site vaccine  was administered</t>
+  </si>
+  <si>
+    <t>Body site where vaccine was administered.</t>
+  </si>
+  <si>
+    <t>The site at which the vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
+  </si>
+  <si>
+    <t>RXR-2</t>
+  </si>
+  <si>
+    <t>observation.targetSiteCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/approachSiteCode/code</t>
   </si>
   <si>
     <t>Immunization.route</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/medicine-route-of-administration</t>
+    <t>How vaccine entered body</t>
+  </si>
+  <si>
+    <t>The path by which the vaccine product is taken into the body.</t>
+  </si>
+  <si>
+    <t>The route by which the vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
+  </si>
+  <si>
+    <t>RXR-1</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/routeCode/code</t>
   </si>
   <si>
     <t>Immunization.doseQuantity</t>
@@ -1406,7 +1209,7 @@
     <t>Immunization.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-practitioner)
 </t>
   </si>
   <si>
@@ -1699,6 +1502,10 @@
     <t>The protocol (set of recommendations) being followed by the provider who administered the dose.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:authority}
+</t>
+  </si>
+  <si>
     <t>Immunization.protocolApplied.id</t>
   </si>
   <si>
@@ -1735,16 +1542,10 @@
     <t>The vaccine preventable disease the dose is being administered against.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/targetDiseases-uv-ips</t>
-  </si>
-  <si>
-    <t>targetDiseaseGPSCode</t>
-  </si>
-  <si>
-    <t>Code for a disease the vaccination is against from the SNOMED CT GPS code set.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/targetDiseases-gps-uv-ips</t>
+    <t>The vaccine preventable disease the dose is being administered for.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-target-disease</t>
   </si>
   <si>
     <t>Immunization.protocolApplied.doseNumber[x]</t>
@@ -1770,6 +1571,13 @@
   </si>
   <si>
     <t>The recommended number of doses to achieve immunity.</t>
+  </si>
+  <si>
+    <t>ProtocolApplied_Authority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-organization)
+</t>
   </si>
 </sst>
 </file>
@@ -1918,7 +1726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN101"/>
+  <dimension ref="A1:AN93"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1927,8 +1735,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.2421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.54296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.77734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1937,7 +1745,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="61.16796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1951,7 +1759,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.4453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.26171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -2091,7 +1899,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>40</v>
       </c>
@@ -2107,22 +1915,22 @@
         <v>43</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -2185,16 +1993,16 @@
         <v>41</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>50</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>41</v>
@@ -2205,7 +2013,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2216,16 +2024,16 @@
         <v>42</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>53</v>
@@ -2293,7 +2101,7 @@
         <v>42</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>41</v>
@@ -2330,16 +2138,16 @@
         <v>42</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>59</v>
@@ -2405,7 +2213,7 @@
         <v>42</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>41</v>
@@ -2442,16 +2250,16 @@
         <v>42</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>65</v>
@@ -2519,7 +2327,7 @@
         <v>42</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>41</v>
@@ -2556,7 +2364,7 @@
         <v>42</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>41</v>
@@ -2633,7 +2441,7 @@
         <v>42</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>41</v>
@@ -2670,7 +2478,7 @@
         <v>42</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>41</v>
@@ -2747,7 +2555,7 @@
         <v>42</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>41</v>
@@ -3018,7 +2826,7 @@
         <v>41</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>41</v>
@@ -3125,7 +2933,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>43</v>
@@ -3189,7 +2997,7 @@
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>113</v>
@@ -3237,10 +3045,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>41</v>
@@ -3352,7 +3160,7 @@
         <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>41</v>
@@ -3427,7 +3235,7 @@
         <v>42</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>41</v>
@@ -3578,16 +3386,16 @@
         <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="I15" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>71</v>
@@ -3657,7 +3465,7 @@
         <v>42</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>41</v>
@@ -3694,16 +3502,16 @@
         <v>42</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>140</v>
@@ -3773,7 +3581,7 @@
         <v>42</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>41</v>
@@ -3807,19 +3615,19 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="F17" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>65</v>
@@ -3889,7 +3697,7 @@
         <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>41</v>
@@ -3923,19 +3731,19 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>53</v>
@@ -4003,7 +3811,7 @@
         <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>41</v>
@@ -4040,16 +3848,16 @@
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>169</v>
@@ -4115,7 +3923,7 @@
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>41</v>
@@ -4152,16 +3960,16 @@
         <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>176</v>
@@ -4229,7 +4037,7 @@
         <v>42</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>41</v>
@@ -4253,7 +4061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>183</v>
       </c>
@@ -4263,19 +4071,19 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="I21" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>71</v>
@@ -4340,10 +4148,10 @@
         <v>183</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>41</v>
@@ -4380,7 +4188,7 @@
         <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>41</v>
@@ -4457,7 +4265,7 @@
         <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>41</v>
@@ -4491,32 +4299,30 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="F23" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>205</v>
-      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -4541,37 +4347,37 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>201</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>41</v>
@@ -4580,24 +4386,24 @@
         <v>63</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>41</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4608,7 +4414,7 @@
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>41</v>
@@ -4683,7 +4489,7 @@
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>41</v>
@@ -4709,7 +4515,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4821,9 +4627,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4831,34 +4637,34 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="F26" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J26" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -4907,7 +4713,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4916,7 +4722,7 @@
         <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>63</v>
@@ -4925,10 +4731,10 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
@@ -4939,7 +4745,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4950,7 +4756,7 @@
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>41</v>
@@ -5025,7 +4831,7 @@
         <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>41</v>
@@ -5051,7 +4857,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5165,7 +4971,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5173,34 +4979,34 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="H29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>65</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -5210,7 +5016,7 @@
         <v>41</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>41</v>
@@ -5249,13 +5055,13 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>41</v>
@@ -5267,21 +5073,21 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5292,28 +5098,28 @@
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5363,13 +5169,13 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>41</v>
@@ -5381,10 +5187,10 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
@@ -5395,7 +5201,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5403,32 +5209,32 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G31" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="H31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>71</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -5457,7 +5263,7 @@
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>41</v>
@@ -5475,13 +5281,13 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>41</v>
@@ -5493,21 +5299,21 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5518,29 +5324,29 @@
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -5589,13 +5395,13 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>41</v>
@@ -5607,10 +5413,10 @@
         <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
@@ -5621,7 +5427,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5632,28 +5438,32 @@
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>53</v>
+        <v>256</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>41</v>
       </c>
@@ -5701,28 +5511,28 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>122</v>
+        <v>261</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
@@ -5733,7 +5543,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5744,28 +5554,32 @@
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>41</v>
       </c>
@@ -5801,38 +5615,40 @@
         <v>41</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AB34" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
@@ -5841,40 +5657,38 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5925,31 +5739,31 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>128</v>
+        <v>272</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5957,7 +5771,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5968,7 +5782,7 @@
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>41</v>
@@ -5980,13 +5794,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>53</v>
+        <v>281</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6010,7 +5824,7 @@
         <v>41</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>271</v>
+        <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
         <v>41</v>
@@ -6037,31 +5851,31 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>41</v>
+        <v>285</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -6069,7 +5883,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6077,35 +5891,33 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>41</v>
       </c>
@@ -6153,13 +5965,13 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
@@ -6168,24 +5980,24 @@
         <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>41</v>
+        <v>293</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>41</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6196,32 +6008,28 @@
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>53</v>
+        <v>289</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
       </c>
@@ -6269,13 +6077,13 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
@@ -6287,25 +6095,23 @@
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>288</v>
+        <v>41</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>41</v>
       </c>
@@ -6314,27 +6120,29 @@
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -6359,11 +6167,13 @@
         <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="X39" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y39" t="s" s="2">
-        <v>293</v>
+        <v>41</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
@@ -6381,13 +6191,13 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>201</v>
+        <v>303</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>41</v>
@@ -6396,28 +6206,26 @@
         <v>63</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>294</v>
+        <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>298</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>41</v>
       </c>
@@ -6426,27 +6234,29 @@
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>140</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -6471,11 +6281,13 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>41</v>
@@ -6493,13 +6305,13 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>201</v>
+        <v>310</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>41</v>
@@ -6508,28 +6320,26 @@
         <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>294</v>
+        <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>298</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>41</v>
       </c>
@@ -6538,25 +6348,25 @@
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>140</v>
+        <v>318</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6583,11 +6393,13 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y41" t="s" s="2">
-        <v>305</v>
+        <v>41</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
@@ -6605,13 +6417,13 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>201</v>
+        <v>317</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>41</v>
@@ -6620,24 +6432,24 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>298</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6645,28 +6457,28 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>307</v>
+        <v>176</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6717,13 +6529,13 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>41</v>
@@ -6732,24 +6544,24 @@
         <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>313</v>
+        <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>41</v>
+        <v>330</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6760,10 +6572,10 @@
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G43" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>41</v>
@@ -6775,10 +6587,10 @@
         <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>120</v>
+        <v>332</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>121</v>
+        <v>333</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6829,53 +6641,53 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>122</v>
+        <v>331</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>41</v>
+        <v>334</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>123</v>
+        <v>335</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>41</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>41</v>
@@ -6884,17 +6696,15 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>97</v>
+        <v>338</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>98</v>
+        <v>339</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>41</v>
@@ -6931,40 +6741,40 @@
         <v>41</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>128</v>
+        <v>337</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>41</v>
+        <v>341</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>123</v>
+        <v>342</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
@@ -6973,9 +6783,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6983,32 +6793,30 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -7033,13 +6841,13 @@
         <v>41</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>41</v>
+        <v>346</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>41</v>
+        <v>347</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>41</v>
@@ -7057,16 +6865,16 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>63</v>
@@ -7075,21 +6883,21 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>94</v>
+        <v>349</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>41</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7100,7 +6908,7 @@
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>41</v>
@@ -7109,20 +6917,18 @@
         <v>41</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>41</v>
@@ -7147,13 +6953,13 @@
         <v>41</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>41</v>
@@ -7171,13 +6977,13 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>41</v>
@@ -7189,21 +6995,21 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>94</v>
+        <v>357</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>41</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7214,7 +7020,7 @@
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>41</v>
@@ -7223,20 +7029,18 @@
         <v>41</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>109</v>
+        <v>360</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>41</v>
@@ -7285,13 +7089,13 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>41</v>
@@ -7303,10 +7107,10 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>41</v>
+        <v>363</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
@@ -7315,9 +7119,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7325,32 +7129,30 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G48" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>53</v>
+        <v>366</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>41</v>
@@ -7399,13 +7201,13 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>41</v>
@@ -7414,13 +7216,13 @@
         <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>41</v>
+        <v>369</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>94</v>
+        <v>371</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
@@ -7431,7 +7233,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7442,7 +7244,7 @@
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>41</v>
@@ -7454,13 +7256,13 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>341</v>
+        <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>342</v>
+        <v>120</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>343</v>
+        <v>121</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7511,71 +7313,71 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>340</v>
+        <v>122</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>344</v>
+        <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>345</v>
+        <v>41</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>346</v>
+        <v>123</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>347</v>
+        <v>41</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>349</v>
+        <v>97</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>350</v>
+        <v>98</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>351</v>
+        <v>125</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>352</v>
+        <v>100</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7625,71 +7427,75 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>348</v>
+        <v>128</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>354</v>
+        <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>355</v>
+        <v>123</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>356</v>
+        <v>41</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H51" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I51" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>120</v>
+        <v>376</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>41</v>
       </c>
@@ -7737,19 +7543,19 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>122</v>
+        <v>378</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>41</v>
@@ -7758,7 +7564,7 @@
         <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7769,18 +7575,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>41</v>
@@ -7789,20 +7595,18 @@
         <v>41</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>98</v>
+        <v>380</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>41</v>
@@ -7827,52 +7631,52 @@
         <v>41</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>41</v>
+        <v>382</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>128</v>
+        <v>379</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>41</v>
+        <v>384</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>123</v>
+        <v>385</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7881,42 +7685,42 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>41</v>
@@ -7965,31 +7769,31 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>128</v>
+        <v>386</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>41</v>
+        <v>391</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>41</v>
+        <v>393</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7997,7 +7801,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8008,25 +7812,25 @@
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8077,13 +7881,13 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>41</v>
@@ -8092,16 +7896,16 @@
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>41</v>
+        <v>399</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>370</v>
+        <v>41</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -8109,7 +7913,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8120,7 +7924,7 @@
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>41</v>
@@ -8129,20 +7933,18 @@
         <v>41</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>274</v>
+        <v>140</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>41</v>
@@ -8167,13 +7969,13 @@
         <v>41</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>41</v>
+        <v>404</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>41</v>
+        <v>405</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>41</v>
@@ -8191,13 +7993,13 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>41</v>
@@ -8206,16 +8008,16 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>41</v>
+        <v>406</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>375</v>
+        <v>41</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>377</v>
+        <v>41</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>
@@ -8223,7 +8025,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8234,7 +8036,7 @@
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>41</v>
@@ -8246,17 +8048,15 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>140</v>
+        <v>409</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>41</v>
@@ -8281,13 +8081,13 @@
         <v>41</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>382</v>
+        <v>41</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>383</v>
+        <v>41</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>41</v>
@@ -8305,13 +8105,13 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>41</v>
@@ -8320,16 +8120,16 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>41</v>
+        <v>411</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>375</v>
+        <v>41</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>384</v>
+        <v>94</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>377</v>
+        <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>41</v>
@@ -8337,7 +8137,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8348,32 +8148,36 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H57" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I57" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>386</v>
+        <v>256</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="Q57" t="s" s="2">
         <v>41</v>
       </c>
@@ -8417,13 +8221,13 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>41</v>
@@ -8432,16 +8236,16 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>389</v>
+        <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>391</v>
+        <v>94</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>392</v>
+        <v>41</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>41</v>
@@ -8449,7 +8253,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8460,7 +8264,7 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>41</v>
@@ -8472,13 +8276,13 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8505,13 +8309,13 @@
         <v>41</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>41</v>
+        <v>421</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>41</v>
+        <v>422</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>41</v>
@@ -8529,13 +8333,13 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>41</v>
@@ -8547,21 +8351,21 @@
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>396</v>
+        <v>41</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>397</v>
+        <v>94</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>398</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8572,7 +8376,7 @@
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>41</v>
@@ -8584,13 +8388,13 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>53</v>
+        <v>366</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8641,39 +8445,39 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>63</v>
+        <v>426</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>402</v>
+        <v>41</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>403</v>
+        <v>94</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>404</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8684,7 +8488,7 @@
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>41</v>
@@ -8696,13 +8500,13 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>406</v>
+        <v>53</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>407</v>
+        <v>120</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>408</v>
+        <v>121</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8753,28 +8557,28 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>405</v>
+        <v>122</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>409</v>
+        <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>410</v>
+        <v>123</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>41</v>
@@ -8783,23 +8587,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>41</v>
@@ -8808,16 +8612,16 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>412</v>
+        <v>98</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>413</v>
+        <v>125</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>205</v>
+        <v>100</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8843,11 +8647,13 @@
         <v>41</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X61" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y61" t="s" s="2">
-        <v>414</v>
+        <v>41</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>41</v>
@@ -8865,28 +8671,28 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>411</v>
+        <v>128</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>211</v>
+        <v>123</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>41</v>
@@ -8895,43 +8701,45 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H62" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I62" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>41</v>
       </c>
@@ -8955,11 +8763,13 @@
         <v>41</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X62" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y62" t="s" s="2">
-        <v>416</v>
+        <v>41</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>41</v>
@@ -8977,28 +8787,28 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
@@ -9009,7 +8819,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9020,7 +8830,7 @@
         <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>41</v>
@@ -9032,13 +8842,13 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>418</v>
+        <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9089,13 +8899,13 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>41</v>
@@ -9107,10 +8917,10 @@
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>422</v>
+        <v>94</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>41</v>
@@ -9119,9 +8929,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9132,25 +8942,25 @@
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>424</v>
+        <v>65</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9201,13 +9011,13 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>41</v>
@@ -9216,13 +9026,13 @@
         <v>63</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>427</v>
+        <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>428</v>
+        <v>41</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>429</v>
+        <v>94</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>41</v>
@@ -9233,7 +9043,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9244,7 +9054,7 @@
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>41</v>
@@ -9256,13 +9066,13 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>53</v>
+        <v>289</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>120</v>
+        <v>438</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>121</v>
+        <v>439</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9313,28 +9123,28 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>122</v>
+        <v>437</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>41</v>
+        <v>440</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>41</v>
@@ -9345,18 +9155,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>41</v>
@@ -9368,17 +9178,15 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>97</v>
+        <v>289</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>98</v>
+        <v>442</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>41</v>
@@ -9427,28 +9235,28 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>128</v>
+        <v>441</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>41</v>
+        <v>444</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>41</v>
@@ -9459,11 +9267,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>433</v>
+        <v>41</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9476,26 +9284,22 @@
         <v>41</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>41</v>
       </c>
@@ -9519,13 +9323,13 @@
         <v>41</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>41</v>
+        <v>448</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>41</v>
+        <v>449</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>41</v>
@@ -9543,7 +9347,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9555,13 +9359,13 @@
         <v>41</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>41</v>
+        <v>450</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>94</v>
@@ -9575,7 +9379,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9586,7 +9390,7 @@
         <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>41</v>
@@ -9595,16 +9399,16 @@
         <v>41</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>140</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9631,13 +9435,13 @@
         <v>41</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>41</v>
@@ -9655,13 +9459,13 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>41</v>
@@ -9670,13 +9474,13 @@
         <v>63</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>442</v>
+        <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>443</v>
+        <v>94</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>41</v>
@@ -9685,9 +9489,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9695,31 +9499,31 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>445</v>
+        <v>366</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9769,13 +9573,13 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>41</v>
@@ -9784,16 +9588,16 @@
         <v>63</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>449</v>
+        <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>41</v>
+        <v>460</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>451</v>
+        <v>41</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>41</v>
@@ -9801,7 +9605,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9812,7 +9616,7 @@
         <v>42</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>41</v>
@@ -9821,16 +9625,16 @@
         <v>41</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>453</v>
+        <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>454</v>
+        <v>120</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>455</v>
+        <v>121</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9881,28 +9685,28 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>452</v>
+        <v>122</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>456</v>
+        <v>41</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>457</v>
+        <v>41</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>458</v>
+        <v>123</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>41</v>
@@ -9913,11 +9717,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9936,15 +9740,17 @@
         <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>460</v>
+        <v>98</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>41</v>
@@ -9969,13 +9775,13 @@
         <v>41</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>462</v>
+        <v>41</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>463</v>
+        <v>41</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>41</v>
@@ -9993,7 +9799,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>459</v>
+        <v>128</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -10005,16 +9811,16 @@
         <v>41</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>464</v>
+        <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>465</v>
+        <v>123</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>41</v>
@@ -10025,11 +9831,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10042,22 +9848,26 @@
         <v>41</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>467</v>
+        <v>97</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>460</v>
+        <v>376</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>41</v>
       </c>
@@ -10105,7 +9915,7 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>466</v>
+        <v>378</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -10117,10 +9927,10 @@
         <v>41</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>469</v>
+        <v>41</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>41</v>
@@ -10137,7 +9947,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10148,36 +9958,32 @@
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P73" t="s" s="2">
-        <v>474</v>
-      </c>
+      <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
         <v>41</v>
       </c>
@@ -10221,13 +10027,13 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>41</v>
@@ -10239,10 +10045,10 @@
         <v>41</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>94</v>
+        <v>295</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>41</v>
@@ -10253,7 +10059,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10264,7 +10070,7 @@
         <v>42</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>41</v>
@@ -10276,13 +10082,13 @@
         <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>140</v>
+        <v>470</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10309,13 +10115,13 @@
         <v>41</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>479</v>
+        <v>41</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>480</v>
+        <v>41</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>41</v>
@@ -10333,13 +10139,13 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>41</v>
@@ -10351,10 +10157,10 @@
         <v>41</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>41</v>
+        <v>473</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>94</v>
+        <v>474</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>
@@ -10365,7 +10171,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10376,7 +10182,7 @@
         <v>42</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>41</v>
@@ -10388,13 +10194,13 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>424</v>
+        <v>256</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10445,28 +10251,28 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>484</v>
+        <v>63</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>41</v>
+        <v>478</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>94</v>
+        <v>479</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>41</v>
@@ -10477,7 +10283,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10485,14 +10291,14 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G76" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G76" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="H76" t="s" s="2">
         <v>41</v>
       </c>
@@ -10500,13 +10306,13 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>53</v>
+        <v>366</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>120</v>
+        <v>481</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>121</v>
+        <v>482</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10545,31 +10351,29 @@
         <v>41</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="AB76" s="2"/>
       <c r="AC76" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>122</v>
+        <v>480</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>41</v>
@@ -10578,7 +10382,7 @@
         <v>41</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>41</v>
@@ -10589,18 +10393,18 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>41</v>
@@ -10612,17 +10416,15 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>41</v>
@@ -10671,19 +10473,19 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>41</v>
@@ -10703,11 +10505,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>433</v>
+        <v>96</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10720,26 +10522,24 @@
         <v>41</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>434</v>
+        <v>98</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>435</v>
+        <v>125</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="N78" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>41</v>
       </c>
@@ -10787,7 +10587,7 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>436</v>
+        <v>128</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10808,7 +10608,7 @@
         <v>41</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>41</v>
@@ -10819,39 +10619,43 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H79" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I79" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>489</v>
+        <v>376</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>41</v>
       </c>
@@ -10899,25 +10703,25 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>488</v>
+        <v>378</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>491</v>
+        <v>41</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>94</v>
@@ -10931,7 +10735,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10942,7 +10746,7 @@
         <v>42</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>41</v>
@@ -10954,13 +10758,13 @@
         <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11011,13 +10815,13 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>41</v>
@@ -11043,7 +10847,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11054,7 +10858,7 @@
         <v>42</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>41</v>
@@ -11066,13 +10870,13 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>366</v>
+        <v>176</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11123,13 +10927,13 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>41</v>
@@ -11141,7 +10945,7 @@
         <v>41</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>498</v>
+        <v>41</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>94</v>
@@ -11155,7 +10959,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11166,7 +10970,7 @@
         <v>42</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>41</v>
@@ -11178,13 +10982,13 @@
         <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>366</v>
+        <v>140</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11211,13 +11015,13 @@
         <v>41</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>41</v>
+        <v>496</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>41</v>
+        <v>497</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>41</v>
@@ -11235,13 +11039,13 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>41</v>
@@ -11253,7 +11057,7 @@
         <v>41</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>502</v>
+        <v>41</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>94</v>
@@ -11267,7 +11071,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11275,10 +11079,10 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>41</v>
@@ -11290,15 +11094,17 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>140</v>
+        <v>499</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>41</v>
@@ -11323,13 +11129,13 @@
         <v>41</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>506</v>
+        <v>41</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>507</v>
+        <v>41</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>41</v>
@@ -11347,13 +11153,13 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>41</v>
@@ -11365,7 +11171,7 @@
         <v>41</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>508</v>
+        <v>41</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>94</v>
@@ -11379,7 +11185,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11390,7 +11196,7 @@
         <v>42</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>41</v>
@@ -11402,15 +11208,17 @@
         <v>41</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>140</v>
+        <v>499</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>41</v>
@@ -11435,13 +11243,13 @@
         <v>41</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>512</v>
+        <v>41</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>513</v>
+        <v>41</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>41</v>
@@ -11459,13 +11267,13 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>41</v>
@@ -11489,23 +11297,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B85" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="C85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>41</v>
@@ -11514,17 +11324,15 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>424</v>
+        <v>366</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>515</v>
+        <v>481</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>41</v>
@@ -11573,7 +11381,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11591,10 +11399,10 @@
         <v>41</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>518</v>
+        <v>41</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>519</v>
+        <v>94</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>41</v>
@@ -11605,7 +11413,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11616,7 +11424,7 @@
         <v>42</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>41</v>
@@ -11691,7 +11499,7 @@
         <v>42</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>41</v>
@@ -11717,7 +11525,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11831,11 +11639,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>522</v>
+        <v>486</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>433</v>
+        <v>375</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11848,19 +11656,19 @@
         <v>41</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>434</v>
+        <v>376</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>435</v>
+        <v>377</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>100</v>
@@ -11915,7 +11723,7 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>436</v>
+        <v>378</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11947,7 +11755,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>523</v>
+        <v>487</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11958,7 +11766,7 @@
         <v>42</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>41</v>
@@ -11970,13 +11778,13 @@
         <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>366</v>
+        <v>53</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>524</v>
+        <v>488</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12027,13 +11835,13 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>523</v>
+        <v>487</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>41</v>
@@ -12045,10 +11853,10 @@
         <v>41</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>526</v>
+        <v>41</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>355</v>
+        <v>94</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>41</v>
@@ -12059,7 +11867,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>527</v>
+        <v>490</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12070,7 +11878,7 @@
         <v>42</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>41</v>
@@ -12082,13 +11890,13 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>529</v>
+        <v>491</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>530</v>
+        <v>492</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12139,13 +11947,13 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>527</v>
+        <v>490</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>41</v>
@@ -12157,10 +11965,10 @@
         <v>41</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>531</v>
+        <v>41</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>532</v>
+        <v>94</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>41</v>
@@ -12171,7 +11979,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12182,7 +11990,7 @@
         <v>42</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>41</v>
@@ -12194,13 +12002,13 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>274</v>
+        <v>140</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>534</v>
+        <v>494</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12227,13 +12035,11 @@
         <v>41</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>41</v>
@@ -12251,13 +12057,13 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>41</v>
@@ -12269,10 +12075,10 @@
         <v>41</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>536</v>
+        <v>41</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>537</v>
+        <v>94</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>41</v>
@@ -12283,7 +12089,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12291,10 +12097,10 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>41</v>
@@ -12306,15 +12112,17 @@
         <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>424</v>
+        <v>499</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>539</v>
+        <v>500</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M92" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>41</v>
@@ -12363,13 +12171,13 @@
         <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>41</v>
@@ -12395,7 +12203,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>541</v>
+        <v>503</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12406,7 +12214,7 @@
         <v>42</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>41</v>
@@ -12418,15 +12226,17 @@
         <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>53</v>
+        <v>499</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>120</v>
+        <v>504</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M93" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>41</v>
@@ -12475,19 +12285,19 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>122</v>
+        <v>503</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>41</v>
@@ -12496,921 +12306,17 @@
         <v>41</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X98" s="2"/>
-      <c r="Y98" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="X99" s="2"/>
-      <c r="Y99" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN101" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN101">
+  <autoFilter ref="A1:AN93">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13420,7 +12326,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI100">
+  <conditionalFormatting sqref="A2:AI92">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-svc-immunization.xlsx
+++ b/StructureDefinition-svc-immunization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="509">
   <si>
     <t>Path</t>
   </si>
@@ -858,7 +858,7 @@
     <t>Immunization.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-patient-updated)
+    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-patient)
 </t>
   </si>
   <si>
@@ -1578,6 +1578,9 @@
   <si>
     <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-organization)
 </t>
+  </si>
+  <si>
+    <t>http://fhir.org/guides/who/svc-rc1/ValueSet/who-svc-vaccinable-confitions</t>
   </si>
 </sst>
 </file>
@@ -1759,7 +1762,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.26171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.6796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -12039,7 +12042,7 @@
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>244</v>
+        <v>508</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-svc-immunization.xlsx
+++ b/StructureDefinition-svc-immunization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="508">
   <si>
     <t>Path</t>
   </si>
@@ -387,7 +387,7 @@
     <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/id</t>
   </si>
   <si>
-    <t>Identifier_URN</t>
+    <t>SVC_Identifier</t>
   </si>
   <si>
     <t>Immunization.identifier.id</t>
@@ -498,9 +498,6 @@
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:uuid</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -3655,46 +3652,46 @@
         <v>41</v>
       </c>
       <c r="R17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S17" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="S17" t="s" s="2">
+      <c r="T17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3712,10 +3709,10 @@
         <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>41</v>
@@ -3726,7 +3723,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3752,13 +3749,13 @@
         <v>53</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3772,43 +3769,43 @@
         <v>41</v>
       </c>
       <c r="S18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3826,10 +3823,10 @@
         <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>41</v>
@@ -3840,7 +3837,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3863,13 +3860,13 @@
         <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3920,7 +3917,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3938,10 +3935,10 @@
         <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>41</v>
@@ -3952,7 +3949,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3975,16 +3972,16 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4034,7 +4031,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -4052,10 +4049,10 @@
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>41</v>
@@ -4066,7 +4063,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4092,13 +4089,13 @@
         <v>71</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4127,11 +4124,11 @@
         <v>134</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="Z21" t="s" s="2">
         <v>41</v>
       </c>
@@ -4148,7 +4145,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>51</v>
@@ -4163,16 +4160,16 @@
         <v>63</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AK21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -4180,7 +4177,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4206,13 +4203,13 @@
         <v>140</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4238,14 +4235,14 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
       </c>
@@ -4262,7 +4259,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4277,13 +4274,13 @@
         <v>63</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>41</v>
@@ -4294,7 +4291,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4320,10 +4317,10 @@
         <v>140</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4350,14 +4347,14 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
       </c>
@@ -4374,7 +4371,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>51</v>
@@ -4389,24 +4386,24 @@
         <v>63</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4518,7 +4515,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4632,7 +4629,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4655,19 +4652,19 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -4716,7 +4713,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4734,10 +4731,10 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
@@ -4748,7 +4745,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4860,7 +4857,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4974,7 +4971,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5000,16 +4997,16 @@
         <v>65</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -5019,46 +5016,46 @@
         <v>41</v>
       </c>
       <c r="R29" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -5076,10 +5073,10 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -5090,7 +5087,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5116,13 +5113,13 @@
         <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5172,7 +5169,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5190,10 +5187,10 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
@@ -5204,7 +5201,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5230,14 +5227,14 @@
         <v>71</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -5266,25 +5263,25 @@
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5302,10 +5299,10 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -5316,7 +5313,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5342,14 +5339,14 @@
         <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -5398,7 +5395,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5416,10 +5413,10 @@
         <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
@@ -5430,7 +5427,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5453,19 +5450,19 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -5514,7 +5511,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5532,10 +5529,10 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
@@ -5546,7 +5543,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5572,16 +5569,16 @@
         <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -5630,7 +5627,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5648,10 +5645,10 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
@@ -5662,7 +5659,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5685,13 +5682,13 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5742,7 +5739,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>51</v>
@@ -5757,16 +5754,16 @@
         <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5774,7 +5771,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5797,13 +5794,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5854,7 +5851,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5869,16 +5866,16 @@
         <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5886,7 +5883,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5909,16 +5906,16 @@
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5968,7 +5965,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>51</v>
@@ -5983,24 +5980,24 @@
         <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6023,13 +6020,13 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6080,7 +6077,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6101,10 +6098,10 @@
         <v>41</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -6112,7 +6109,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6135,16 +6132,16 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6194,7 +6191,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6212,13 +6209,13 @@
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -6226,7 +6223,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6252,13 +6249,13 @@
         <v>140</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6284,14 +6281,14 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>41</v>
       </c>
@@ -6308,7 +6305,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6326,13 +6323,13 @@
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6340,7 +6337,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6363,13 +6360,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6420,7 +6417,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6435,16 +6432,16 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6452,7 +6449,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6475,13 +6472,13 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6532,7 +6529,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6550,21 +6547,21 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6590,10 +6587,10 @@
         <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6644,7 +6641,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6662,21 +6659,21 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>336</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6699,13 +6696,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6756,7 +6753,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6774,10 +6771,10 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
@@ -6788,7 +6785,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6814,10 +6811,10 @@
         <v>140</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6844,14 +6841,14 @@
         <v>41</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>347</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>41</v>
       </c>
@@ -6868,7 +6865,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6886,21 +6883,21 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>350</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6926,10 +6923,10 @@
         <v>140</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6956,14 +6953,14 @@
         <v>41</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="Z46" t="s" s="2">
         <v>41</v>
       </c>
@@ -6980,7 +6977,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6998,21 +6995,21 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>358</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7035,13 +7032,13 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7092,7 +7089,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7110,10 +7107,10 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
@@ -7124,7 +7121,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7147,13 +7144,13 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7204,7 +7201,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7219,13 +7216,13 @@
         <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
@@ -7236,7 +7233,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7348,7 +7345,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7462,11 +7459,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7488,10 +7485,10 @@
         <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>100</v>
@@ -7546,7 +7543,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7578,7 +7575,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7604,10 +7601,10 @@
         <v>140</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7637,11 +7634,11 @@
         <v>145</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
       </c>
@@ -7658,7 +7655,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7673,13 +7670,13 @@
         <v>63</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7690,7 +7687,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7713,16 +7710,16 @@
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7772,7 +7769,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>51</v>
@@ -7787,16 +7784,16 @@
         <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AK53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7804,7 +7801,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7827,13 +7824,13 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7884,7 +7881,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7899,13 +7896,13 @@
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
@@ -7916,7 +7913,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7942,10 +7939,10 @@
         <v>140</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7972,14 +7969,14 @@
         <v>41</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="Y55" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="Z55" t="s" s="2">
         <v>41</v>
       </c>
@@ -7996,7 +7993,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8011,13 +8008,13 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -8028,7 +8025,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8051,13 +8048,13 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8108,7 +8105,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8123,7 +8120,7 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>41</v>
@@ -8140,7 +8137,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8163,23 +8160,23 @@
         <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q57" t="s" s="2">
         <v>41</v>
@@ -8224,7 +8221,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8242,7 +8239,7 @@
         <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>94</v>
@@ -8256,7 +8253,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8282,10 +8279,10 @@
         <v>140</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8312,14 +8309,14 @@
         <v>41</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>41</v>
       </c>
@@ -8336,7 +8333,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8368,7 +8365,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8391,13 +8388,13 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8448,7 +8445,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8460,7 +8457,7 @@
         <v>41</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>41</v>
@@ -8480,7 +8477,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8592,7 +8589,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8706,11 +8703,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8732,10 +8729,10 @@
         <v>97</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>100</v>
@@ -8790,7 +8787,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8822,7 +8819,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8848,10 +8845,10 @@
         <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8902,7 +8899,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8920,7 +8917,7 @@
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>94</v>
@@ -8934,7 +8931,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8960,10 +8957,10 @@
         <v>65</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9014,7 +9011,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9046,7 +9043,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9069,13 +9066,13 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9126,7 +9123,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9144,7 +9141,7 @@
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>94</v>
@@ -9158,7 +9155,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9181,13 +9178,13 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9238,7 +9235,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9256,7 +9253,7 @@
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>94</v>
@@ -9270,7 +9267,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9296,10 +9293,10 @@
         <v>140</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9326,14 +9323,14 @@
         <v>41</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>449</v>
-      </c>
       <c r="Z67" t="s" s="2">
         <v>41</v>
       </c>
@@ -9350,7 +9347,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9368,7 +9365,7 @@
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>94</v>
@@ -9382,7 +9379,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9408,10 +9405,10 @@
         <v>140</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9438,14 +9435,14 @@
         <v>41</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Y68" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="Y68" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="Z68" t="s" s="2">
         <v>41</v>
       </c>
@@ -9462,7 +9459,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9494,7 +9491,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9517,16 +9514,16 @@
         <v>41</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9576,7 +9573,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9594,10 +9591,10 @@
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>
@@ -9608,7 +9605,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9720,7 +9717,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9834,11 +9831,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9860,10 +9857,10 @@
         <v>97</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>100</v>
@@ -9918,7 +9915,7 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9950,7 +9947,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9973,13 +9970,13 @@
         <v>41</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10030,7 +10027,7 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10048,10 +10045,10 @@
         <v>41</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>41</v>
@@ -10062,7 +10059,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10085,13 +10082,13 @@
         <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10142,7 +10139,7 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10160,10 +10157,10 @@
         <v>41</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>
@@ -10174,7 +10171,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10197,13 +10194,13 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10254,7 +10251,7 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10272,10 +10269,10 @@
         <v>41</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>41</v>
@@ -10286,7 +10283,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10309,13 +10306,13 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10354,7 +10351,7 @@
         <v>41</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AB76" s="2"/>
       <c r="AC76" t="s" s="2">
@@ -10364,7 +10361,7 @@
         <v>113</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10396,7 +10393,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10508,7 +10505,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10622,11 +10619,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10648,10 +10645,10 @@
         <v>97</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>100</v>
@@ -10706,7 +10703,7 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10738,7 +10735,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10764,10 +10761,10 @@
         <v>53</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10818,7 +10815,7 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10850,7 +10847,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10873,13 +10870,13 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10930,7 +10927,7 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -10962,7 +10959,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10988,10 +10985,10 @@
         <v>140</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11018,14 +11015,14 @@
         <v>41</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>497</v>
-      </c>
       <c r="Z82" t="s" s="2">
         <v>41</v>
       </c>
@@ -11042,7 +11039,7 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11074,7 +11071,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11097,16 +11094,16 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11156,7 +11153,7 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>51</v>
@@ -11188,7 +11185,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11211,16 +11208,16 @@
         <v>41</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="M84" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11270,7 +11267,7 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11302,10 +11299,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>41</v>
@@ -11327,13 +11324,13 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11384,7 +11381,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11416,7 +11413,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11528,7 +11525,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11642,11 +11639,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11668,10 +11665,10 @@
         <v>97</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>100</v>
@@ -11726,7 +11723,7 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11758,7 +11755,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11784,10 +11781,10 @@
         <v>53</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11838,7 +11835,7 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -11870,7 +11867,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11893,13 +11890,13 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11950,7 +11947,7 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -11982,7 +11979,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12008,10 +12005,10 @@
         <v>140</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12042,7 +12039,7 @@
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>41</v>
@@ -12060,7 +12057,7 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12092,7 +12089,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12115,16 +12112,16 @@
         <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="K92" t="s" s="2">
+      <c r="L92" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12174,7 +12171,7 @@
         <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>51</v>
@@ -12206,7 +12203,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12229,16 +12226,16 @@
         <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L93" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="M93" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12288,7 +12285,7 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>

--- a/StructureDefinition-svc-immunization.xlsx
+++ b/StructureDefinition-svc-immunization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$94</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="509">
   <si>
     <t>Path</t>
   </si>
@@ -701,6 +701,9 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
+    <t>SVC_Vaccine</t>
+  </si>
+  <si>
     <t>Immunization.vaccineCode.coding.id</t>
   </si>
   <si>
@@ -1206,7 +1209,7 @@
     <t>Immunization.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-practitioner)
+    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-practitioner|http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-organization)
 </t>
   </si>
   <si>
@@ -1726,7 +1729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN93"/>
+  <dimension ref="A1:AN94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4640,7 +4643,7 @@
         <v>51</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>41</v>
@@ -4701,16 +4704,14 @@
         <v>41</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>218</v>
@@ -4745,15 +4746,17 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>51</v>
@@ -4765,19 +4768,23 @@
         <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
       </c>
@@ -4825,28 +4832,28 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
@@ -4861,14 +4868,14 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>41</v>
@@ -4880,17 +4887,15 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4927,31 +4932,31 @@
         <v>41</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>41</v>
@@ -4969,45 +4974,43 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>41</v>
       </c>
@@ -5016,7 +5019,7 @@
         <v>41</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>41</v>
@@ -5043,40 +5046,40 @@
         <v>41</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>231</v>
+        <v>123</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -5085,9 +5088,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5095,13 +5098,13 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>41</v>
@@ -5110,18 +5113,20 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
       </c>
@@ -5130,7 +5135,7 @@
         <v>41</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>41</v>
@@ -5169,7 +5174,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5187,10 +5192,10 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
@@ -5199,9 +5204,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5209,13 +5214,13 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
@@ -5224,18 +5229,18 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>41</v>
       </c>
@@ -5259,11 +5264,13 @@
         <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>41</v>
@@ -5281,7 +5288,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5299,10 +5306,10 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -5311,9 +5318,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5321,13 +5328,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
@@ -5336,17 +5343,17 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -5371,13 +5378,11 @@
         <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="X32" s="2"/>
       <c r="Y32" t="s" s="2">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>41</v>
@@ -5395,7 +5400,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5413,10 +5418,10 @@
         <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
@@ -5427,7 +5432,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5450,19 +5455,17 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>255</v>
+        <v>53</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -5511,7 +5514,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5529,10 +5532,10 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
@@ -5543,7 +5546,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5566,19 +5569,19 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>53</v>
+        <v>256</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -5627,7 +5630,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5645,10 +5648,10 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
@@ -5659,7 +5662,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5667,7 +5670,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
@@ -5682,16 +5685,20 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>272</v>
+        <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>41</v>
       </c>
@@ -5739,10 +5746,10 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>51</v>
@@ -5754,16 +5761,16 @@
         <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>275</v>
+        <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>278</v>
+        <v>41</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5771,7 +5778,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5779,7 +5786,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>51</v>
@@ -5791,16 +5798,16 @@
         <v>41</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5851,10 +5858,10 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>51</v>
@@ -5866,16 +5873,16 @@
         <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5883,7 +5890,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5891,7 +5898,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>51</v>
@@ -5903,20 +5910,18 @@
         <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>41</v>
@@ -5965,10 +5970,10 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>51</v>
@@ -5980,24 +5985,24 @@
         <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>296</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6005,7 +6010,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>51</v>
@@ -6017,18 +6022,20 @@
         <v>41</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -6077,10 +6084,10 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>51</v>
@@ -6092,24 +6099,24 @@
         <v>63</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>41</v>
+        <v>293</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>41</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6129,20 +6136,18 @@
         <v>41</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -6191,7 +6196,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6209,13 +6214,13 @@
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>306</v>
+        <v>41</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -6223,7 +6228,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6243,19 +6248,19 @@
         <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6281,13 +6286,13 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>313</v>
+        <v>41</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>314</v>
+        <v>41</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>41</v>
@@ -6305,7 +6310,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6323,13 +6328,13 @@
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6337,7 +6342,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6360,15 +6365,17 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>317</v>
+        <v>140</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -6393,13 +6400,13 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>41</v>
+        <v>314</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
@@ -6417,7 +6424,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6432,16 +6439,16 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>320</v>
+        <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6449,7 +6456,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6472,13 +6479,13 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>175</v>
+        <v>318</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6529,7 +6536,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6544,24 +6551,24 @@
         <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>41</v>
+        <v>321</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>329</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6575,7 +6582,7 @@
         <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>41</v>
@@ -6584,13 +6591,13 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6641,7 +6648,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6659,21 +6666,21 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6696,13 +6703,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>337</v>
+        <v>53</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6753,7 +6760,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6771,21 +6778,21 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>41</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6799,7 +6806,7 @@
         <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>41</v>
@@ -6808,13 +6815,13 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6841,13 +6848,13 @@
         <v>41</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>345</v>
+        <v>41</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>346</v>
+        <v>41</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>41</v>
@@ -6865,7 +6872,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6883,21 +6890,21 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>349</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6923,10 +6930,10 @@
         <v>140</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6956,10 +6963,10 @@
         <v>195</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>41</v>
@@ -6977,7 +6984,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6995,21 +7002,21 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7032,13 +7039,13 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>359</v>
+        <v>140</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7065,13 +7072,13 @@
         <v>41</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>41</v>
+        <v>354</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>41</v>
+        <v>355</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
@@ -7089,7 +7096,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7107,21 +7114,21 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>41</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7129,28 +7136,28 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7201,13 +7208,13 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>41</v>
@@ -7216,13 +7223,13 @@
         <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>368</v>
+        <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
@@ -7231,9 +7238,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7241,28 +7248,28 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>53</v>
+        <v>366</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>120</v>
+        <v>367</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>121</v>
+        <v>368</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7313,28 +7320,28 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>122</v>
+        <v>365</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>41</v>
+        <v>369</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>123</v>
+        <v>371</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -7349,14 +7356,14 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>41</v>
@@ -7368,17 +7375,15 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>41</v>
@@ -7427,19 +7432,19 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>41</v>
@@ -7463,7 +7468,7 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>374</v>
+        <v>96</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7476,26 +7481,24 @@
         <v>41</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>375</v>
+        <v>98</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>376</v>
+        <v>125</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>41</v>
       </c>
@@ -7543,7 +7546,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>377</v>
+        <v>128</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7564,7 +7567,7 @@
         <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7575,39 +7578,43 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>41</v>
       </c>
@@ -7631,13 +7638,13 @@
         <v>41</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>381</v>
+        <v>41</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>382</v>
+        <v>41</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
@@ -7661,22 +7668,22 @@
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>383</v>
+        <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>384</v>
+        <v>94</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7687,7 +7694,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7695,7 +7702,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>51</v>
@@ -7710,17 +7717,15 @@
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>386</v>
+        <v>140</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>41</v>
@@ -7745,13 +7750,13 @@
         <v>41</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>41</v>
+        <v>382</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
@@ -7769,10 +7774,10 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>51</v>
@@ -7784,16 +7789,16 @@
         <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>392</v>
+        <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7801,7 +7806,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7809,10 +7814,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>41</v>
@@ -7824,15 +7829,17 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>41</v>
@@ -7881,13 +7888,13 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>41</v>
@@ -7896,16 +7903,16 @@
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>398</v>
+        <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>41</v>
+        <v>393</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7913,7 +7920,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7933,16 +7940,16 @@
         <v>41</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>140</v>
+        <v>395</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7969,13 +7976,13 @@
         <v>41</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>403</v>
+        <v>41</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>404</v>
+        <v>41</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>41</v>
@@ -7993,7 +8000,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8008,13 +8015,13 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>41</v>
+        <v>399</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -8025,7 +8032,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8048,13 +8055,13 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>408</v>
+        <v>140</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8081,13 +8088,13 @@
         <v>41</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>41</v>
+        <v>404</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>41</v>
+        <v>405</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>41</v>
@@ -8105,7 +8112,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8120,13 +8127,13 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>94</v>
+        <v>407</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
@@ -8137,7 +8144,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8148,36 +8155,32 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>255</v>
+        <v>409</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P57" t="s" s="2">
-        <v>415</v>
-      </c>
+      <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
         <v>41</v>
       </c>
@@ -8221,13 +8224,13 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>41</v>
@@ -8236,10 +8239,10 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>41</v>
+        <v>411</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>416</v>
+        <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>94</v>
@@ -8253,7 +8256,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8264,32 +8267,36 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="Q58" t="s" s="2">
         <v>41</v>
       </c>
@@ -8309,13 +8316,13 @@
         <v>41</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>420</v>
+        <v>41</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>421</v>
+        <v>41</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>41</v>
@@ -8333,13 +8340,13 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>41</v>
@@ -8351,7 +8358,7 @@
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>41</v>
+        <v>417</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>94</v>
@@ -8365,7 +8372,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8388,13 +8395,13 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>365</v>
+        <v>140</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8421,13 +8428,13 @@
         <v>41</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>41</v>
+        <v>421</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>41</v>
+        <v>422</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>41</v>
@@ -8445,7 +8452,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8457,7 +8464,7 @@
         <v>41</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>425</v>
+        <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>41</v>
@@ -8477,7 +8484,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8488,7 +8495,7 @@
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>41</v>
@@ -8500,13 +8507,13 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>53</v>
+        <v>366</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>120</v>
+        <v>424</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>121</v>
+        <v>425</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8557,19 +8564,19 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>122</v>
+        <v>423</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>41</v>
+        <v>426</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>41</v>
@@ -8578,7 +8585,7 @@
         <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>41</v>
@@ -8593,14 +8600,14 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>41</v>
@@ -8612,17 +8619,15 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>41</v>
@@ -8671,19 +8676,19 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>41</v>
@@ -8707,7 +8712,7 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>374</v>
+        <v>96</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8720,26 +8725,24 @@
         <v>41</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>375</v>
+        <v>98</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>376</v>
+        <v>125</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="N62" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>41</v>
       </c>
@@ -8787,7 +8790,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>377</v>
+        <v>128</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8808,7 +8811,7 @@
         <v>41</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
@@ -8823,35 +8826,39 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>430</v>
+        <v>376</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>41</v>
       </c>
@@ -8899,25 +8906,25 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>432</v>
+        <v>41</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>94</v>
@@ -8931,7 +8938,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8954,13 +8961,13 @@
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9011,7 +9018,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9029,7 +9036,7 @@
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>41</v>
+        <v>433</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>94</v>
@@ -9043,7 +9050,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9066,13 +9073,13 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>288</v>
+        <v>65</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9123,7 +9130,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9141,7 +9148,7 @@
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>439</v>
+        <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>94</v>
@@ -9155,7 +9162,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9178,13 +9185,13 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9235,7 +9242,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9253,7 +9260,7 @@
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>94</v>
@@ -9267,7 +9274,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9278,7 +9285,7 @@
         <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>41</v>
@@ -9290,13 +9297,13 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>140</v>
+        <v>289</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9323,13 +9330,13 @@
         <v>41</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>447</v>
+        <v>41</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>448</v>
+        <v>41</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>41</v>
@@ -9347,13 +9354,13 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>41</v>
@@ -9365,7 +9372,7 @@
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>94</v>
@@ -9379,7 +9386,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9390,7 +9397,7 @@
         <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>41</v>
@@ -9405,10 +9412,10 @@
         <v>140</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9438,10 +9445,10 @@
         <v>195</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>41</v>
@@ -9459,13 +9466,13 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>41</v>
@@ -9477,7 +9484,7 @@
         <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>41</v>
+        <v>450</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>94</v>
@@ -9491,7 +9498,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9502,7 +9509,7 @@
         <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>41</v>
@@ -9514,17 +9521,15 @@
         <v>41</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>365</v>
+        <v>140</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>41</v>
@@ -9549,13 +9554,13 @@
         <v>41</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>41</v>
+        <v>454</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>41</v>
+        <v>455</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>41</v>
@@ -9573,13 +9578,13 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>41</v>
@@ -9591,10 +9596,10 @@
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>459</v>
+        <v>41</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>460</v>
+        <v>94</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>
@@ -9605,7 +9610,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9616,7 +9621,7 @@
         <v>42</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>41</v>
@@ -9628,15 +9633,17 @@
         <v>41</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>53</v>
+        <v>366</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>120</v>
+        <v>457</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>41</v>
@@ -9685,28 +9692,28 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>122</v>
+        <v>456</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>41</v>
+        <v>460</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>123</v>
+        <v>461</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>41</v>
@@ -9721,14 +9728,14 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>41</v>
@@ -9740,17 +9747,15 @@
         <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>41</v>
@@ -9799,19 +9804,19 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>41</v>
@@ -9835,7 +9840,7 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>374</v>
+        <v>96</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9848,26 +9853,24 @@
         <v>41</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>375</v>
+        <v>98</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>376</v>
+        <v>125</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="N72" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>41</v>
       </c>
@@ -9915,7 +9918,7 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>377</v>
+        <v>128</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9936,7 +9939,7 @@
         <v>41</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>41</v>
@@ -9951,35 +9954,39 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>288</v>
+        <v>97</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>465</v>
+        <v>376</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>41</v>
       </c>
@@ -10027,28 +10034,28 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>464</v>
+        <v>378</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>467</v>
+        <v>41</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>294</v>
+        <v>94</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>41</v>
@@ -10059,7 +10066,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10082,13 +10089,13 @@
         <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>469</v>
+        <v>289</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10139,7 +10146,7 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10157,10 +10164,10 @@
         <v>41</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>473</v>
+        <v>295</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>
@@ -10171,7 +10178,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10194,13 +10201,13 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>255</v>
+        <v>470</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10251,7 +10258,7 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10269,10 +10276,10 @@
         <v>41</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>41</v>
@@ -10283,7 +10290,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10291,13 +10298,13 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>41</v>
@@ -10306,13 +10313,13 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>365</v>
+        <v>256</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10351,23 +10358,25 @@
         <v>41</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AB76" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC76" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>41</v>
@@ -10379,10 +10388,10 @@
         <v>41</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>41</v>
+        <v>478</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>94</v>
+        <v>479</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>41</v>
@@ -10393,7 +10402,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10401,13 +10410,13 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>41</v>
@@ -10416,13 +10425,13 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>53</v>
+        <v>366</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>120</v>
+        <v>481</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>121</v>
+        <v>482</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10461,31 +10470,29 @@
         <v>41</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="AB77" s="2"/>
       <c r="AC77" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>122</v>
+        <v>480</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>41</v>
@@ -10494,7 +10501,7 @@
         <v>41</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>41</v>
@@ -10509,14 +10516,14 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>41</v>
@@ -10528,17 +10535,15 @@
         <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>41</v>
@@ -10587,19 +10592,19 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>41</v>
@@ -10623,7 +10628,7 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>374</v>
+        <v>96</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10636,26 +10641,24 @@
         <v>41</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>375</v>
+        <v>98</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>376</v>
+        <v>125</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="N79" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>41</v>
       </c>
@@ -10703,7 +10706,7 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>377</v>
+        <v>128</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10724,7 +10727,7 @@
         <v>41</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>41</v>
@@ -10739,35 +10742,39 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>487</v>
+        <v>376</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>41</v>
       </c>
@@ -10815,19 +10822,19 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>486</v>
+        <v>378</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>41</v>
@@ -10847,7 +10854,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10870,13 +10877,13 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10927,7 +10934,7 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -10959,7 +10966,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10970,7 +10977,7 @@
         <v>42</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>41</v>
@@ -10982,13 +10989,13 @@
         <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11015,13 +11022,13 @@
         <v>41</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>495</v>
+        <v>41</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>496</v>
+        <v>41</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>41</v>
@@ -11039,13 +11046,13 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>41</v>
@@ -11071,7 +11078,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11079,10 +11086,10 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>41</v>
@@ -11094,17 +11101,15 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>498</v>
+        <v>140</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>41</v>
@@ -11129,13 +11134,13 @@
         <v>41</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>41</v>
+        <v>496</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>41</v>
+        <v>497</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>41</v>
@@ -11153,13 +11158,13 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>41</v>
@@ -11185,7 +11190,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11193,7 +11198,7 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>51</v>
@@ -11208,16 +11213,16 @@
         <v>41</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11267,10 +11272,10 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>51</v>
@@ -11297,25 +11302,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>505</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>41</v>
@@ -11324,15 +11327,17 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>365</v>
+        <v>499</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>41</v>
@@ -11381,13 +11386,13 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>41</v>
@@ -11411,23 +11416,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B86" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="C86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>41</v>
@@ -11436,13 +11443,13 @@
         <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>53</v>
+        <v>366</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>120</v>
+        <v>481</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>121</v>
+        <v>482</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11493,19 +11500,19 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>122</v>
+        <v>480</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>41</v>
@@ -11514,7 +11521,7 @@
         <v>41</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>41</v>
@@ -11529,14 +11536,14 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>41</v>
@@ -11548,17 +11555,15 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>41</v>
@@ -11607,19 +11612,19 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>41</v>
@@ -11643,7 +11648,7 @@
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>374</v>
+        <v>96</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11656,26 +11661,24 @@
         <v>41</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>375</v>
+        <v>98</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>376</v>
+        <v>125</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="N88" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>41</v>
       </c>
@@ -11723,7 +11726,7 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>377</v>
+        <v>128</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11744,7 +11747,7 @@
         <v>41</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>41</v>
@@ -11759,35 +11762,39 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>487</v>
+        <v>376</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>41</v>
       </c>
@@ -11835,19 +11842,19 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>486</v>
+        <v>378</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>41</v>
@@ -11867,7 +11874,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11890,13 +11897,13 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>506</v>
+        <v>53</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11947,7 +11954,7 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -11979,7 +11986,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11990,7 +11997,7 @@
         <v>42</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>41</v>
@@ -12002,13 +12009,13 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>140</v>
+        <v>507</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12035,11 +12042,13 @@
         <v>41</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="X91" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y91" t="s" s="2">
-        <v>507</v>
+        <v>41</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>41</v>
@@ -12057,13 +12066,13 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>41</v>
@@ -12089,7 +12098,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12097,10 +12106,10 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>41</v>
@@ -12112,17 +12121,15 @@
         <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>498</v>
+        <v>140</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>41</v>
@@ -12147,13 +12154,11 @@
         <v>41</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="X92" s="2"/>
       <c r="Y92" t="s" s="2">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>41</v>
@@ -12171,13 +12176,13 @@
         <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>41</v>
@@ -12203,7 +12208,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12211,7 +12216,7 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>51</v>
@@ -12226,16 +12231,16 @@
         <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12285,10 +12290,10 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>51</v>
@@ -12315,8 +12320,122 @@
         <v>41</v>
       </c>
     </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN93">
+  <autoFilter ref="A1:AN94">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12326,7 +12445,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI92">
+  <conditionalFormatting sqref="A2:AI93">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
